--- a/Data/EC/NIT-9017120828.xlsx
+++ b/Data/EC/NIT-9017120828.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A424A6CF-9B2A-427E-8750-BD5407209798}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{661AC4B1-4E86-42F0-AEBE-4E5A98062308}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D809DEA4-E2A0-4AB3-BE5A-0CF2469A05F4}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{BA8598C9-31EA-4AEB-B047-64E337419BA4}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="125">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,6 +65,54 @@
     <t>CC</t>
   </si>
   <si>
+    <t>8980991</t>
+  </si>
+  <si>
+    <t>JEAN CARLOS ORTEGA DIAZ</t>
+  </si>
+  <si>
+    <t>2507</t>
+  </si>
+  <si>
+    <t>1002307880</t>
+  </si>
+  <si>
+    <t>FARID DAVID ORTIZ SOLANO</t>
+  </si>
+  <si>
+    <t>1047441960</t>
+  </si>
+  <si>
+    <t>RAFAEL EDUARDO ROMERO VELEZ</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
+    <t>73573693</t>
+  </si>
+  <si>
+    <t>REINALVY JOSE GONZALEZ CANTILLO</t>
+  </si>
+  <si>
+    <t>9087367</t>
+  </si>
+  <si>
+    <t>GILBERTO ROMERO SANMARTIN</t>
+  </si>
+  <si>
+    <t>1049826376</t>
+  </si>
+  <si>
+    <t>DAWIS ARROYO TORRES</t>
+  </si>
+  <si>
+    <t>1007628105</t>
+  </si>
+  <si>
+    <t>KATTY JOHANNA BOLAÑO DE LEON</t>
+  </si>
+  <si>
     <t>1047390593</t>
   </si>
   <si>
@@ -74,61 +122,208 @@
     <t>2505</t>
   </si>
   <si>
+    <t>7920805</t>
+  </si>
+  <si>
+    <t>ANGEL MODESTO BLANCO HERRERA</t>
+  </si>
+  <si>
+    <t>1104381481</t>
+  </si>
+  <si>
+    <t>BRELIS JOSE FLOREZ POLANCO</t>
+  </si>
+  <si>
+    <t>1047468175</t>
+  </si>
+  <si>
+    <t>CARLOS JOSE MARTINEZ CASTILLO</t>
+  </si>
+  <si>
+    <t>1143401077</t>
+  </si>
+  <si>
+    <t>LIVAN RONALDO MIRANDA ACEVEDO</t>
+  </si>
+  <si>
+    <t>1143324208</t>
+  </si>
+  <si>
+    <t>EMANUEL JOSE ORTEGA CASTELLANO</t>
+  </si>
+  <si>
+    <t>1047466609</t>
+  </si>
+  <si>
+    <t>JORDY MANUEL GOMEZ VASQUEZ</t>
+  </si>
+  <si>
+    <t>11038313</t>
+  </si>
+  <si>
+    <t>SANTIAGO ARROYO ROJAS</t>
+  </si>
+  <si>
+    <t>3892326</t>
+  </si>
+  <si>
+    <t>CARLOS TOVAR GARCIA</t>
+  </si>
+  <si>
+    <t>9147020</t>
+  </si>
+  <si>
+    <t>FRANCISCO JAVIER CARVAJAL MADRID</t>
+  </si>
+  <si>
+    <t>72262949</t>
+  </si>
+  <si>
+    <t>JOE MARIO MARTINEZ COHEN</t>
+  </si>
+  <si>
+    <t>1007169087</t>
+  </si>
+  <si>
+    <t>ROBERTH ALBERTO OLMOS NUNEZ</t>
+  </si>
+  <si>
+    <t>1143384185</t>
+  </si>
+  <si>
+    <t>TANIA JULIETH RODRIGUEZ PALACIO</t>
+  </si>
+  <si>
+    <t>5030019</t>
+  </si>
+  <si>
+    <t>GERMAN ORELLANOS</t>
+  </si>
+  <si>
+    <t>1002430510</t>
+  </si>
+  <si>
+    <t>ALEXIS PEREZ FRANCO</t>
+  </si>
+  <si>
+    <t>8573681</t>
+  </si>
+  <si>
+    <t>WILSON DAVID OROZCO HERNANDEZ</t>
+  </si>
+  <si>
+    <t>1002306435</t>
+  </si>
+  <si>
+    <t>YEIFER JOSE RUIZ PEREZ</t>
+  </si>
+  <si>
+    <t>1049534130</t>
+  </si>
+  <si>
+    <t>ONIX RAFAEL REALES OROZCO</t>
+  </si>
+  <si>
+    <t>1002187932</t>
+  </si>
+  <si>
+    <t>FELIX MANUEL ARROYO VASQUEZ</t>
+  </si>
+  <si>
+    <t>1047412739</t>
+  </si>
+  <si>
+    <t>CLEIDER ANGULO JARAMILLO</t>
+  </si>
+  <si>
+    <t>73593712</t>
+  </si>
+  <si>
+    <t>EDWIN ENRIQUE CORTINA MENDOZA</t>
+  </si>
+  <si>
+    <t>1047422032</t>
+  </si>
+  <si>
+    <t>LUIS MIGUEL HOYOS GALVIS</t>
+  </si>
+  <si>
+    <t>1056773716</t>
+  </si>
+  <si>
+    <t>KIMBERLY LIZDEY SOTO HERNANDEZ</t>
+  </si>
+  <si>
+    <t>1049825242</t>
+  </si>
+  <si>
+    <t>RICARDO JULIO GUZMAN</t>
+  </si>
+  <si>
+    <t>1002196560</t>
+  </si>
+  <si>
+    <t>VICTOR ADOLFO URZOLA GOMEZ</t>
+  </si>
+  <si>
     <t>1041977292</t>
   </si>
   <si>
     <t>LUIS MARIO CARVAJAL CHAVES</t>
   </si>
   <si>
+    <t>1049824347</t>
+  </si>
+  <si>
+    <t>WUILMER ENRIQUE ALTAMAR MONTALVO</t>
+  </si>
+  <si>
+    <t>1002316506</t>
+  </si>
+  <si>
+    <t>JUAN DE DIOS BERRIO PITALUA</t>
+  </si>
+  <si>
+    <t>1002316294</t>
+  </si>
+  <si>
+    <t>BREINER VILLA ALMEIDA</t>
+  </si>
+  <si>
+    <t>1048580090</t>
+  </si>
+  <si>
+    <t>LUIS GUILLERMO OROZCO RAMOS</t>
+  </si>
+  <si>
     <t>1192738276</t>
   </si>
   <si>
     <t>ADOLFREDO HERRERA COLON</t>
   </si>
   <si>
+    <t>8572454</t>
+  </si>
+  <si>
+    <t>EMILTON RAFAEL VALENCIA CERVANTES</t>
+  </si>
+  <si>
     <t>1046430032</t>
   </si>
   <si>
     <t>YAMIR ALFONSO NARVAEZ LOBO</t>
   </si>
   <si>
-    <t>2506</t>
-  </si>
-  <si>
-    <t>1007169087</t>
-  </si>
-  <si>
-    <t>ROBERTH ALBERTO OLMOS NUNEZ</t>
-  </si>
-  <si>
-    <t>1143384185</t>
-  </si>
-  <si>
-    <t>TANIA JULIETH RODRIGUEZ PALACIO</t>
-  </si>
-  <si>
-    <t>1002316294</t>
-  </si>
-  <si>
-    <t>BREINER VILLA ALMEIDA</t>
-  </si>
-  <si>
-    <t>1047441960</t>
-  </si>
-  <si>
-    <t>RAFAEL EDUARDO ROMERO VELEZ</t>
-  </si>
-  <si>
-    <t>5030019</t>
-  </si>
-  <si>
-    <t>GERMAN ORELLANOS</t>
-  </si>
-  <si>
-    <t>1143401077</t>
-  </si>
-  <si>
-    <t>LIVAN RONALDO MIRANDA ACEVEDO</t>
+    <t>84038369</t>
+  </si>
+  <si>
+    <t>ROBINSON MANUEL OROZCO CERVERA</t>
+  </si>
+  <si>
+    <t>1192731155</t>
+  </si>
+  <si>
+    <t>LUIS RAFAEL TERAN LOPEZ</t>
   </si>
   <si>
     <t>1065623077</t>
@@ -137,106 +332,22 @@
     <t>SERGIO VALLE BELLO</t>
   </si>
   <si>
-    <t>11038313</t>
-  </si>
-  <si>
-    <t>SANTIAGO ARROYO ROJAS</t>
-  </si>
-  <si>
-    <t>1002316506</t>
-  </si>
-  <si>
-    <t>JUAN DE DIOS BERRIO PITALUA</t>
-  </si>
-  <si>
-    <t>1002196560</t>
-  </si>
-  <si>
-    <t>VICTOR ADOLFO URZOLA GOMEZ</t>
-  </si>
-  <si>
-    <t>1002187932</t>
-  </si>
-  <si>
-    <t>FELIX MANUEL ARROYO VASQUEZ</t>
-  </si>
-  <si>
-    <t>1049825242</t>
-  </si>
-  <si>
-    <t>RICARDO JULIO GUZMAN</t>
-  </si>
-  <si>
-    <t>1192731155</t>
-  </si>
-  <si>
-    <t>LUIS RAFAEL TERAN LOPEZ</t>
-  </si>
-  <si>
-    <t>7920805</t>
-  </si>
-  <si>
-    <t>ANGEL MODESTO BLANCO HERRERA</t>
-  </si>
-  <si>
-    <t>9087367</t>
-  </si>
-  <si>
-    <t>GILBERTO ROMERO SANMARTIN</t>
-  </si>
-  <si>
     <t>1065653936</t>
   </si>
   <si>
     <t>CARLOS JAVIER MISAL PADILLA</t>
   </si>
   <si>
-    <t>1056773716</t>
-  </si>
-  <si>
-    <t>KIMBERLY LIZDEY SOTO HERNANDEZ</t>
-  </si>
-  <si>
-    <t>1104381481</t>
-  </si>
-  <si>
-    <t>BRELIS JOSE FLOREZ POLANCO</t>
-  </si>
-  <si>
-    <t>1049824347</t>
-  </si>
-  <si>
-    <t>WUILMER ENRIQUE ALTAMAR MONTALVO</t>
-  </si>
-  <si>
-    <t>1047468175</t>
-  </si>
-  <si>
-    <t>CARLOS JOSE MARTINEZ CASTILLO</t>
-  </si>
-  <si>
-    <t>1047466609</t>
-  </si>
-  <si>
-    <t>JORDY MANUEL GOMEZ VASQUEZ</t>
-  </si>
-  <si>
-    <t>1047422032</t>
-  </si>
-  <si>
-    <t>LUIS MIGUEL HOYOS GALVIS</t>
-  </si>
-  <si>
-    <t>9147020</t>
-  </si>
-  <si>
-    <t>FRANCISCO JAVIER CARVAJAL MADRID</t>
-  </si>
-  <si>
-    <t>73573693</t>
-  </si>
-  <si>
-    <t>REINALVY JOSE GONZALEZ CANTILLO</t>
+    <t>1065631823</t>
+  </si>
+  <si>
+    <t>YONYS ENRIQUE OCHOA ACEVEDO</t>
+  </si>
+  <si>
+    <t>1065631907</t>
+  </si>
+  <si>
+    <t>OMAR JAVIER NIEVES SALAS</t>
   </si>
   <si>
     <t>1065630304</t>
@@ -245,40 +356,28 @@
     <t>GUSTAVO ALBERTO GOMEZ PALMERA</t>
   </si>
   <si>
-    <t>8572454</t>
-  </si>
-  <si>
-    <t>EMILTON RAFAEL VALENCIA CERVANTES</t>
-  </si>
-  <si>
-    <t>1065631823</t>
-  </si>
-  <si>
-    <t>YONYS ENRIQUE OCHOA ACEVEDO</t>
-  </si>
-  <si>
-    <t>1049826376</t>
-  </si>
-  <si>
-    <t>DAWIS ARROYO TORRES</t>
-  </si>
-  <si>
-    <t>72262949</t>
-  </si>
-  <si>
-    <t>JOE MARIO MARTINEZ COHEN</t>
-  </si>
-  <si>
-    <t>84038369</t>
-  </si>
-  <si>
-    <t>ROBINSON MANUEL OROZCO CERVERA</t>
-  </si>
-  <si>
-    <t>1065631907</t>
-  </si>
-  <si>
-    <t>OMAR JAVIER NIEVES SALAS</t>
+    <t>1049539239</t>
+  </si>
+  <si>
+    <t>PEDRO LUIS CABARCAS SOLANO</t>
+  </si>
+  <si>
+    <t>73561757</t>
+  </si>
+  <si>
+    <t>JOSE MIGUEL PATERNINA ROMERO</t>
+  </si>
+  <si>
+    <t>1051885758</t>
+  </si>
+  <si>
+    <t>MIGUEL ANGEL PATERNINA JIMENEZ</t>
+  </si>
+  <si>
+    <t>1192921571</t>
+  </si>
+  <si>
+    <t>DUVAN ENRIQUE GALAN CONEO</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -692,7 +791,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{512D1E46-C1B9-3F36-35EE-CBD5FE35695D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{088AF13B-8646-BC94-00C2-1399CAF1F349}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1043,8 +1142,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D16F0DC-9421-4E17-B521-78A4FC80AD50}">
-  <dimension ref="B2:J59"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFB85976-5859-4CB3-AA9D-9EDB1FAE3B4B}">
+  <dimension ref="B2:J110"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1068,7 +1167,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1113,7 +1212,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1145,12 +1244,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>83</v>
+        <v>116</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>1211292</v>
+        <v>3916652</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1161,17 +1260,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>84</v>
+        <v>117</v>
       </c>
       <c r="C13" s="5">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>85</v>
+        <v>118</v>
       </c>
       <c r="F13" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1198,13 +1297,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>87</v>
+        <v>120</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>86</v>
+        <v>119</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>88</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1221,10 +1320,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>2165</v>
+        <v>30368</v>
       </c>
       <c r="G16" s="18">
-        <v>1623500</v>
+        <v>1423500</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1244,10 +1343,10 @@
         <v>11</v>
       </c>
       <c r="F17" s="18">
-        <v>2165</v>
+        <v>45552</v>
       </c>
       <c r="G17" s="18">
-        <v>1623500</v>
+        <v>1423500</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1267,7 +1366,7 @@
         <v>11</v>
       </c>
       <c r="F18" s="18">
-        <v>2165</v>
+        <v>64940</v>
       </c>
       <c r="G18" s="18">
         <v>1623500</v>
@@ -1281,13 +1380,13 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F19" s="18">
         <v>45458</v>
@@ -1304,19 +1403,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F20" s="18">
-        <v>7592</v>
+        <v>64940</v>
       </c>
       <c r="G20" s="18">
-        <v>1423500</v>
+        <v>1623500</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1327,19 +1426,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F21" s="18">
-        <v>56940</v>
+        <v>28141</v>
       </c>
       <c r="G21" s="18">
-        <v>1423500</v>
+        <v>1623500</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1350,19 +1449,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F22" s="18">
-        <v>13286</v>
+        <v>64940</v>
       </c>
       <c r="G22" s="18">
-        <v>1423500</v>
+        <v>781242</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1373,19 +1472,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F23" s="18">
-        <v>64940</v>
+        <v>43294</v>
       </c>
       <c r="G23" s="18">
-        <v>1623500</v>
+        <v>781242</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1396,19 +1495,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F24" s="18">
-        <v>45458</v>
+        <v>56940</v>
       </c>
       <c r="G24" s="18">
-        <v>1623500</v>
+        <v>1423500</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1419,19 +1518,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F25" s="18">
-        <v>28141</v>
+        <v>13286</v>
       </c>
       <c r="G25" s="18">
-        <v>1623500</v>
+        <v>1423500</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1442,19 +1541,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F26" s="18">
-        <v>28141</v>
+        <v>56940</v>
       </c>
       <c r="G26" s="18">
-        <v>1623500</v>
+        <v>1423500</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1465,16 +1564,16 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F27" s="18">
-        <v>45458</v>
+        <v>64940</v>
       </c>
       <c r="G27" s="18">
         <v>1623500</v>
@@ -1488,19 +1587,19 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F28" s="18">
-        <v>11388</v>
+        <v>64940</v>
       </c>
       <c r="G28" s="18">
-        <v>1423500</v>
+        <v>1623500</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1511,16 +1610,16 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="F29" s="18">
-        <v>25976</v>
+        <v>2165</v>
       </c>
       <c r="G29" s="18">
         <v>1623500</v>
@@ -1534,19 +1633,19 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F30" s="18">
-        <v>11388</v>
+        <v>64940</v>
       </c>
       <c r="G30" s="18">
-        <v>1423500</v>
+        <v>1623500</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1557,19 +1656,19 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F31" s="18">
-        <v>11388</v>
+        <v>45458</v>
       </c>
       <c r="G31" s="18">
-        <v>1423500</v>
+        <v>1623500</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1580,19 +1679,19 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F32" s="18">
-        <v>13286</v>
+        <v>64940</v>
       </c>
       <c r="G32" s="18">
-        <v>1423500</v>
+        <v>1623500</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1603,16 +1702,16 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F33" s="18">
-        <v>45458</v>
+        <v>28141</v>
       </c>
       <c r="G33" s="18">
         <v>1623500</v>
@@ -1626,16 +1725,16 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F34" s="18">
-        <v>45458</v>
+        <v>64940</v>
       </c>
       <c r="G34" s="18">
         <v>1623500</v>
@@ -1649,16 +1748,16 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F35" s="18">
-        <v>43294</v>
+        <v>28141</v>
       </c>
       <c r="G35" s="18">
         <v>1623500</v>
@@ -1672,16 +1771,16 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F36" s="18">
-        <v>45458</v>
+        <v>64940</v>
       </c>
       <c r="G36" s="18">
         <v>1623500</v>
@@ -1695,19 +1794,19 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F37" s="18">
-        <v>56940</v>
+        <v>28141</v>
       </c>
       <c r="G37" s="18">
-        <v>1423500</v>
+        <v>1623500</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -1718,19 +1817,19 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F38" s="18">
-        <v>28141</v>
+        <v>30368</v>
       </c>
       <c r="G38" s="18">
-        <v>1623500</v>
+        <v>1423500</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1741,19 +1840,19 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F39" s="18">
-        <v>25976</v>
+        <v>56940</v>
       </c>
       <c r="G39" s="18">
-        <v>1623500</v>
+        <v>1350000</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1764,19 +1863,19 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F40" s="18">
-        <v>28141</v>
+        <v>11388</v>
       </c>
       <c r="G40" s="18">
-        <v>1623500</v>
+        <v>1350000</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -1787,19 +1886,19 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F41" s="18">
-        <v>11388</v>
+        <v>56940</v>
       </c>
       <c r="G41" s="18">
-        <v>1423500</v>
+        <v>1350000</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1810,19 +1909,19 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F42" s="18">
-        <v>28141</v>
+        <v>11388</v>
       </c>
       <c r="G42" s="18">
-        <v>1623500</v>
+        <v>1350000</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -1833,19 +1932,19 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F43" s="18">
-        <v>45458</v>
+        <v>17082</v>
       </c>
       <c r="G43" s="18">
-        <v>1623500</v>
+        <v>1423500</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -1856,19 +1955,19 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F44" s="18">
         <v>64940</v>
       </c>
       <c r="G44" s="18">
-        <v>1623500</v>
+        <v>828116</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -1879,19 +1978,19 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F45" s="18">
-        <v>28141</v>
+        <v>45458</v>
       </c>
       <c r="G45" s="18">
-        <v>1623500</v>
+        <v>828116</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -1902,16 +2001,16 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F46" s="18">
-        <v>28141</v>
+        <v>64940</v>
       </c>
       <c r="G46" s="18">
         <v>1623500</v>
@@ -1925,13 +2024,13 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F47" s="18">
         <v>45458</v>
@@ -1948,19 +2047,19 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F48" s="18">
-        <v>28141</v>
+        <v>56940</v>
       </c>
       <c r="G48" s="18">
-        <v>1623500</v>
+        <v>1423500</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
@@ -1971,16 +2070,16 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F49" s="18">
-        <v>13286</v>
+        <v>7592</v>
       </c>
       <c r="G49" s="18">
         <v>1423500</v>
@@ -1994,19 +2093,19 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F50" s="18">
-        <v>45458</v>
+        <v>56940</v>
       </c>
       <c r="G50" s="18">
-        <v>1623500</v>
+        <v>1423500</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
@@ -2017,19 +2116,19 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F51" s="18">
-        <v>45458</v>
+        <v>56940</v>
       </c>
       <c r="G51" s="18">
-        <v>1623500</v>
+        <v>1423500</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
@@ -2040,16 +2139,16 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F52" s="18">
-        <v>28141</v>
+        <v>64940</v>
       </c>
       <c r="G52" s="18">
         <v>1623500</v>
@@ -2059,56 +2158,1229 @@
       <c r="J52" s="20"/>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B53" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C53" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D53" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E53" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="F53" s="24">
+      <c r="B53" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D53" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E53" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F53" s="18">
+        <v>28141</v>
+      </c>
+      <c r="G53" s="18">
+        <v>1623500</v>
+      </c>
+      <c r="H53" s="19"/>
+      <c r="I53" s="19"/>
+      <c r="J53" s="20"/>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B54" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D54" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E54" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F54" s="18">
+        <v>30368</v>
+      </c>
+      <c r="G54" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H54" s="19"/>
+      <c r="I54" s="19"/>
+      <c r="J54" s="20"/>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B55" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D55" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E55" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F55" s="18">
+        <v>53144</v>
+      </c>
+      <c r="G55" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H55" s="19"/>
+      <c r="I55" s="19"/>
+      <c r="J55" s="20"/>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B56" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C56" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D56" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="E56" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F56" s="18">
+        <v>26572</v>
+      </c>
+      <c r="G56" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H56" s="19"/>
+      <c r="I56" s="19"/>
+      <c r="J56" s="20"/>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B57" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C57" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="D57" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="E57" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F57" s="18">
+        <v>17082</v>
+      </c>
+      <c r="G57" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H57" s="19"/>
+      <c r="I57" s="19"/>
+      <c r="J57" s="20"/>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B58" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C58" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D58" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="E58" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F58" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G58" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H58" s="19"/>
+      <c r="I58" s="19"/>
+      <c r="J58" s="20"/>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B59" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D59" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="E59" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F59" s="18">
+        <v>11388</v>
+      </c>
+      <c r="G59" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H59" s="19"/>
+      <c r="I59" s="19"/>
+      <c r="J59" s="20"/>
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B60" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C60" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="D60" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="E60" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F60" s="18">
+        <v>30368</v>
+      </c>
+      <c r="G60" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H60" s="19"/>
+      <c r="I60" s="19"/>
+      <c r="J60" s="20"/>
+    </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B61" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C61" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="D61" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="E61" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F61" s="18">
+        <v>30368</v>
+      </c>
+      <c r="G61" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H61" s="19"/>
+      <c r="I61" s="19"/>
+      <c r="J61" s="20"/>
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B62" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C62" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D62" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E62" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F62" s="18">
         <v>64940</v>
       </c>
-      <c r="G53" s="24">
-        <v>1623500</v>
-      </c>
-      <c r="H53" s="25"/>
-      <c r="I53" s="25"/>
-      <c r="J53" s="26"/>
-    </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B58" s="32" t="s">
+      <c r="G62" s="18">
+        <v>1623500</v>
+      </c>
+      <c r="H62" s="19"/>
+      <c r="I62" s="19"/>
+      <c r="J62" s="20"/>
+    </row>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B63" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C63" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D63" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E63" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F63" s="18">
+        <v>28141</v>
+      </c>
+      <c r="G63" s="18">
+        <v>1623500</v>
+      </c>
+      <c r="H63" s="19"/>
+      <c r="I63" s="19"/>
+      <c r="J63" s="20"/>
+    </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B64" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C64" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="D64" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="E64" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F64" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G64" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H64" s="19"/>
+      <c r="I64" s="19"/>
+      <c r="J64" s="20"/>
+    </row>
+    <row r="65" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B65" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C65" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="D65" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="E65" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F65" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G65" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H65" s="19"/>
+      <c r="I65" s="19"/>
+      <c r="J65" s="20"/>
+    </row>
+    <row r="66" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B66" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C66" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="D66" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="E66" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F66" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G66" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H66" s="19"/>
+      <c r="I66" s="19"/>
+      <c r="J66" s="20"/>
+    </row>
+    <row r="67" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B67" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C67" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="D67" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="E67" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F67" s="18">
+        <v>13286</v>
+      </c>
+      <c r="G67" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H67" s="19"/>
+      <c r="I67" s="19"/>
+      <c r="J67" s="20"/>
+    </row>
+    <row r="68" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B68" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C68" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="D68" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="E68" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F68" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G68" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H68" s="19"/>
+      <c r="I68" s="19"/>
+      <c r="J68" s="20"/>
+    </row>
+    <row r="69" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B69" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C69" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="D69" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="E69" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F69" s="18">
+        <v>11388</v>
+      </c>
+      <c r="G69" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H69" s="19"/>
+      <c r="I69" s="19"/>
+      <c r="J69" s="20"/>
+    </row>
+    <row r="70" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B70" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C70" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="D70" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="E70" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F70" s="18">
+        <v>64940</v>
+      </c>
+      <c r="G70" s="18">
+        <v>1623500</v>
+      </c>
+      <c r="H70" s="19"/>
+      <c r="I70" s="19"/>
+      <c r="J70" s="20"/>
+    </row>
+    <row r="71" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B71" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C71" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="D71" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="E71" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F71" s="18">
+        <v>64940</v>
+      </c>
+      <c r="G71" s="18">
+        <v>1623500</v>
+      </c>
+      <c r="H71" s="19"/>
+      <c r="I71" s="19"/>
+      <c r="J71" s="20"/>
+    </row>
+    <row r="72" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B72" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C72" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="D72" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="E72" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="F72" s="18">
+        <v>2165</v>
+      </c>
+      <c r="G72" s="18">
+        <v>1623500</v>
+      </c>
+      <c r="H72" s="19"/>
+      <c r="I72" s="19"/>
+      <c r="J72" s="20"/>
+    </row>
+    <row r="73" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B73" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C73" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="D73" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="E73" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F73" s="18">
+        <v>64940</v>
+      </c>
+      <c r="G73" s="18">
+        <v>1623500</v>
+      </c>
+      <c r="H73" s="19"/>
+      <c r="I73" s="19"/>
+      <c r="J73" s="20"/>
+    </row>
+    <row r="74" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B74" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C74" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="D74" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="E74" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F74" s="18">
+        <v>25976</v>
+      </c>
+      <c r="G74" s="18">
+        <v>1623500</v>
+      </c>
+      <c r="H74" s="19"/>
+      <c r="I74" s="19"/>
+      <c r="J74" s="20"/>
+    </row>
+    <row r="75" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B75" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C75" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="D75" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="E75" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F75" s="18">
+        <v>64940</v>
+      </c>
+      <c r="G75" s="18">
+        <v>1623500</v>
+      </c>
+      <c r="H75" s="19"/>
+      <c r="I75" s="19"/>
+      <c r="J75" s="20"/>
+    </row>
+    <row r="76" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B76" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C76" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="D76" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="E76" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F76" s="18">
+        <v>25976</v>
+      </c>
+      <c r="G76" s="18">
+        <v>1623500</v>
+      </c>
+      <c r="H76" s="19"/>
+      <c r="I76" s="19"/>
+      <c r="J76" s="20"/>
+    </row>
+    <row r="77" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B77" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C77" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="D77" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="E77" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F77" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G77" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H77" s="19"/>
+      <c r="I77" s="19"/>
+      <c r="J77" s="20"/>
+    </row>
+    <row r="78" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B78" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C78" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="D78" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="E78" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F78" s="18">
+        <v>13286</v>
+      </c>
+      <c r="G78" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H78" s="19"/>
+      <c r="I78" s="19"/>
+      <c r="J78" s="20"/>
+    </row>
+    <row r="79" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B79" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C79" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="D79" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="E79" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F79" s="18">
+        <v>26572</v>
+      </c>
+      <c r="G79" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H79" s="19"/>
+      <c r="I79" s="19"/>
+      <c r="J79" s="20"/>
+    </row>
+    <row r="80" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B80" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C80" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="D80" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="E80" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F80" s="18">
+        <v>64940</v>
+      </c>
+      <c r="G80" s="18">
+        <v>1623500</v>
+      </c>
+      <c r="H80" s="19"/>
+      <c r="I80" s="19"/>
+      <c r="J80" s="20"/>
+    </row>
+    <row r="81" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B81" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C81" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="D81" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="E81" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F81" s="18">
+        <v>64940</v>
+      </c>
+      <c r="G81" s="18">
+        <v>1623500</v>
+      </c>
+      <c r="H81" s="19"/>
+      <c r="I81" s="19"/>
+      <c r="J81" s="20"/>
+    </row>
+    <row r="82" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B82" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C82" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="D82" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="E82" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="F82" s="18">
+        <v>2165</v>
+      </c>
+      <c r="G82" s="18">
+        <v>1623500</v>
+      </c>
+      <c r="H82" s="19"/>
+      <c r="I82" s="19"/>
+      <c r="J82" s="20"/>
+    </row>
+    <row r="83" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B83" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C83" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="D83" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="E83" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F83" s="18">
+        <v>64940</v>
+      </c>
+      <c r="G83" s="18">
+        <v>1623500</v>
+      </c>
+      <c r="H83" s="19"/>
+      <c r="I83" s="19"/>
+      <c r="J83" s="20"/>
+    </row>
+    <row r="84" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B84" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C84" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="D84" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="E84" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F84" s="18">
+        <v>45458</v>
+      </c>
+      <c r="G84" s="18">
+        <v>1623500</v>
+      </c>
+      <c r="H84" s="19"/>
+      <c r="I84" s="19"/>
+      <c r="J84" s="20"/>
+    </row>
+    <row r="85" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B85" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C85" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C58" s="32"/>
-      <c r="H58" s="1" t="s">
+      <c r="D85" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="E85" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F85" s="18">
+        <v>64940</v>
+      </c>
+      <c r="G85" s="18">
+        <v>1623500</v>
+      </c>
+      <c r="H85" s="19"/>
+      <c r="I85" s="19"/>
+      <c r="J85" s="20"/>
+    </row>
+    <row r="86" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B86" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C86" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="I58" s="1"/>
-      <c r="J58" s="1"/>
-    </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B59" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="C59" s="32"/>
-      <c r="H59" s="1" t="s">
+      <c r="D86" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="I59" s="1"/>
-      <c r="J59" s="1"/>
+      <c r="E86" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F86" s="18">
+        <v>45458</v>
+      </c>
+      <c r="G86" s="18">
+        <v>1623500</v>
+      </c>
+      <c r="H86" s="19"/>
+      <c r="I86" s="19"/>
+      <c r="J86" s="20"/>
+    </row>
+    <row r="87" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B87" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C87" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="D87" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="E87" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F87" s="18">
+        <v>64940</v>
+      </c>
+      <c r="G87" s="18">
+        <v>1623500</v>
+      </c>
+      <c r="H87" s="19"/>
+      <c r="I87" s="19"/>
+      <c r="J87" s="20"/>
+    </row>
+    <row r="88" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B88" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C88" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="D88" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="E88" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F88" s="18">
+        <v>45458</v>
+      </c>
+      <c r="G88" s="18">
+        <v>1623500</v>
+      </c>
+      <c r="H88" s="19"/>
+      <c r="I88" s="19"/>
+      <c r="J88" s="20"/>
+    </row>
+    <row r="89" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B89" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C89" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="D89" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="E89" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F89" s="18">
+        <v>64940</v>
+      </c>
+      <c r="G89" s="18">
+        <v>1623500</v>
+      </c>
+      <c r="H89" s="19"/>
+      <c r="I89" s="19"/>
+      <c r="J89" s="20"/>
+    </row>
+    <row r="90" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B90" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C90" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="D90" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="E90" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F90" s="18">
+        <v>45458</v>
+      </c>
+      <c r="G90" s="18">
+        <v>1623500</v>
+      </c>
+      <c r="H90" s="19"/>
+      <c r="I90" s="19"/>
+      <c r="J90" s="20"/>
+    </row>
+    <row r="91" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B91" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C91" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="D91" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="E91" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F91" s="18">
+        <v>64940</v>
+      </c>
+      <c r="G91" s="18">
+        <v>1623500</v>
+      </c>
+      <c r="H91" s="19"/>
+      <c r="I91" s="19"/>
+      <c r="J91" s="20"/>
+    </row>
+    <row r="92" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B92" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C92" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="D92" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="E92" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F92" s="18">
+        <v>45458</v>
+      </c>
+      <c r="G92" s="18">
+        <v>1623500</v>
+      </c>
+      <c r="H92" s="19"/>
+      <c r="I92" s="19"/>
+      <c r="J92" s="20"/>
+    </row>
+    <row r="93" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B93" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C93" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="D93" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="E93" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F93" s="18">
+        <v>64940</v>
+      </c>
+      <c r="G93" s="18">
+        <v>1623500</v>
+      </c>
+      <c r="H93" s="19"/>
+      <c r="I93" s="19"/>
+      <c r="J93" s="20"/>
+    </row>
+    <row r="94" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B94" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C94" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="D94" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="E94" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F94" s="18">
+        <v>45458</v>
+      </c>
+      <c r="G94" s="18">
+        <v>1623500</v>
+      </c>
+      <c r="H94" s="19"/>
+      <c r="I94" s="19"/>
+      <c r="J94" s="20"/>
+    </row>
+    <row r="95" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B95" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C95" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="D95" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="E95" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F95" s="18">
+        <v>64940</v>
+      </c>
+      <c r="G95" s="18">
+        <v>1623500</v>
+      </c>
+      <c r="H95" s="19"/>
+      <c r="I95" s="19"/>
+      <c r="J95" s="20"/>
+    </row>
+    <row r="96" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B96" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C96" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="D96" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="E96" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F96" s="18">
+        <v>28141</v>
+      </c>
+      <c r="G96" s="18">
+        <v>1623500</v>
+      </c>
+      <c r="H96" s="19"/>
+      <c r="I96" s="19"/>
+      <c r="J96" s="20"/>
+    </row>
+    <row r="97" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B97" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C97" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="D97" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="E97" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F97" s="18">
+        <v>64940</v>
+      </c>
+      <c r="G97" s="18">
+        <v>1623500</v>
+      </c>
+      <c r="H97" s="19"/>
+      <c r="I97" s="19"/>
+      <c r="J97" s="20"/>
+    </row>
+    <row r="98" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B98" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C98" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="D98" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="E98" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F98" s="18">
+        <v>28141</v>
+      </c>
+      <c r="G98" s="18">
+        <v>1623500</v>
+      </c>
+      <c r="H98" s="19"/>
+      <c r="I98" s="19"/>
+      <c r="J98" s="20"/>
+    </row>
+    <row r="99" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B99" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C99" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="D99" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="E99" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F99" s="18">
+        <v>64940</v>
+      </c>
+      <c r="G99" s="18">
+        <v>1623500</v>
+      </c>
+      <c r="H99" s="19"/>
+      <c r="I99" s="19"/>
+      <c r="J99" s="20"/>
+    </row>
+    <row r="100" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B100" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C100" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="D100" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="E100" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F100" s="18">
+        <v>28141</v>
+      </c>
+      <c r="G100" s="18">
+        <v>1623500</v>
+      </c>
+      <c r="H100" s="19"/>
+      <c r="I100" s="19"/>
+      <c r="J100" s="20"/>
+    </row>
+    <row r="101" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B101" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C101" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="D101" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="E101" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F101" s="18">
+        <v>26572</v>
+      </c>
+      <c r="G101" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H101" s="19"/>
+      <c r="I101" s="19"/>
+      <c r="J101" s="20"/>
+    </row>
+    <row r="102" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B102" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C102" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="D102" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="E102" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F102" s="18">
+        <v>30368</v>
+      </c>
+      <c r="G102" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H102" s="19"/>
+      <c r="I102" s="19"/>
+      <c r="J102" s="20"/>
+    </row>
+    <row r="103" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B103" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C103" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="D103" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="E103" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F103" s="18">
+        <v>30368</v>
+      </c>
+      <c r="G103" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H103" s="19"/>
+      <c r="I103" s="19"/>
+      <c r="J103" s="20"/>
+    </row>
+    <row r="104" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B104" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C104" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="D104" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="E104" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F104" s="24">
+        <v>30368</v>
+      </c>
+      <c r="G104" s="24">
+        <v>1423500</v>
+      </c>
+      <c r="H104" s="25"/>
+      <c r="I104" s="25"/>
+      <c r="J104" s="26"/>
+    </row>
+    <row r="109" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B109" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="C109" s="32"/>
+      <c r="H109" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="I109" s="1"/>
+      <c r="J109" s="1"/>
+    </row>
+    <row r="110" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B110" s="32" t="s">
+        <v>122</v>
+      </c>
+      <c r="C110" s="32"/>
+      <c r="H110" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="I110" s="1"/>
+      <c r="J110" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="H59:J59"/>
-    <mergeCell ref="H58:J58"/>
+    <mergeCell ref="B110:C110"/>
+    <mergeCell ref="B109:C109"/>
+    <mergeCell ref="H110:J110"/>
+    <mergeCell ref="H109:J109"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9017120828.xlsx
+++ b/Data/EC/NIT-9017120828.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{661AC4B1-4E86-42F0-AEBE-4E5A98062308}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{97A13FB3-7260-4EEC-B932-CD534132A0D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{BA8598C9-31EA-4AEB-B047-64E337419BA4}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{E13C583E-A3A2-4F30-9AF2-6EB3BE0D3B7A}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="126">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,13 +65,256 @@
     <t>CC</t>
   </si>
   <si>
+    <t>1047390593</t>
+  </si>
+  <si>
+    <t>CARLOS MARIO CARVAJAL MADRID</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>1041977292</t>
+  </si>
+  <si>
+    <t>LUIS MARIO CARVAJAL CHAVES</t>
+  </si>
+  <si>
+    <t>1192738276</t>
+  </si>
+  <si>
+    <t>ADOLFREDO HERRERA COLON</t>
+  </si>
+  <si>
+    <t>1047441960</t>
+  </si>
+  <si>
+    <t>RAFAEL EDUARDO ROMERO VELEZ</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
+    <t>73573693</t>
+  </si>
+  <si>
+    <t>REINALVY JOSE GONZALEZ CANTILLO</t>
+  </si>
+  <si>
+    <t>9087367</t>
+  </si>
+  <si>
+    <t>GILBERTO ROMERO SANMARTIN</t>
+  </si>
+  <si>
+    <t>1049826376</t>
+  </si>
+  <si>
+    <t>DAWIS ARROYO TORRES</t>
+  </si>
+  <si>
+    <t>7920805</t>
+  </si>
+  <si>
+    <t>ANGEL MODESTO BLANCO HERRERA</t>
+  </si>
+  <si>
+    <t>1104381481</t>
+  </si>
+  <si>
+    <t>BRELIS JOSE FLOREZ POLANCO</t>
+  </si>
+  <si>
+    <t>1047468175</t>
+  </si>
+  <si>
+    <t>CARLOS JOSE MARTINEZ CASTILLO</t>
+  </si>
+  <si>
+    <t>1143401077</t>
+  </si>
+  <si>
+    <t>LIVAN RONALDO MIRANDA ACEVEDO</t>
+  </si>
+  <si>
+    <t>1047466609</t>
+  </si>
+  <si>
+    <t>JORDY MANUEL GOMEZ VASQUEZ</t>
+  </si>
+  <si>
+    <t>11038313</t>
+  </si>
+  <si>
+    <t>SANTIAGO ARROYO ROJAS</t>
+  </si>
+  <si>
+    <t>9147020</t>
+  </si>
+  <si>
+    <t>FRANCISCO JAVIER CARVAJAL MADRID</t>
+  </si>
+  <si>
+    <t>72262949</t>
+  </si>
+  <si>
+    <t>JOE MARIO MARTINEZ COHEN</t>
+  </si>
+  <si>
+    <t>1007169087</t>
+  </si>
+  <si>
+    <t>ROBERTH ALBERTO OLMOS NUNEZ</t>
+  </si>
+  <si>
+    <t>1143384185</t>
+  </si>
+  <si>
+    <t>TANIA JULIETH RODRIGUEZ PALACIO</t>
+  </si>
+  <si>
+    <t>5030019</t>
+  </si>
+  <si>
+    <t>GERMAN ORELLANOS</t>
+  </si>
+  <si>
+    <t>1002187932</t>
+  </si>
+  <si>
+    <t>FELIX MANUEL ARROYO VASQUEZ</t>
+  </si>
+  <si>
+    <t>1047422032</t>
+  </si>
+  <si>
+    <t>LUIS MIGUEL HOYOS GALVIS</t>
+  </si>
+  <si>
+    <t>1056773716</t>
+  </si>
+  <si>
+    <t>KIMBERLY LIZDEY SOTO HERNANDEZ</t>
+  </si>
+  <si>
+    <t>1049825242</t>
+  </si>
+  <si>
+    <t>RICARDO JULIO GUZMAN</t>
+  </si>
+  <si>
+    <t>1002196560</t>
+  </si>
+  <si>
+    <t>VICTOR ADOLFO URZOLA GOMEZ</t>
+  </si>
+  <si>
+    <t>1049824347</t>
+  </si>
+  <si>
+    <t>WUILMER ENRIQUE ALTAMAR MONTALVO</t>
+  </si>
+  <si>
+    <t>1002316506</t>
+  </si>
+  <si>
+    <t>JUAN DE DIOS BERRIO PITALUA</t>
+  </si>
+  <si>
+    <t>1002316294</t>
+  </si>
+  <si>
+    <t>BREINER VILLA ALMEIDA</t>
+  </si>
+  <si>
+    <t>8572454</t>
+  </si>
+  <si>
+    <t>EMILTON RAFAEL VALENCIA CERVANTES</t>
+  </si>
+  <si>
+    <t>1046430032</t>
+  </si>
+  <si>
+    <t>YAMIR ALFONSO NARVAEZ LOBO</t>
+  </si>
+  <si>
+    <t>84038369</t>
+  </si>
+  <si>
+    <t>ROBINSON MANUEL OROZCO CERVERA</t>
+  </si>
+  <si>
+    <t>1192731155</t>
+  </si>
+  <si>
+    <t>LUIS RAFAEL TERAN LOPEZ</t>
+  </si>
+  <si>
+    <t>1065623077</t>
+  </si>
+  <si>
+    <t>SERGIO VALLE BELLO</t>
+  </si>
+  <si>
+    <t>1065653936</t>
+  </si>
+  <si>
+    <t>CARLOS JAVIER MISAL PADILLA</t>
+  </si>
+  <si>
+    <t>1065631823</t>
+  </si>
+  <si>
+    <t>YONYS ENRIQUE OCHOA ACEVEDO</t>
+  </si>
+  <si>
+    <t>1065631907</t>
+  </si>
+  <si>
+    <t>OMAR JAVIER NIEVES SALAS</t>
+  </si>
+  <si>
+    <t>1065630304</t>
+  </si>
+  <si>
+    <t>GUSTAVO ALBERTO GOMEZ PALMERA</t>
+  </si>
+  <si>
+    <t>2507</t>
+  </si>
+  <si>
+    <t>3892326</t>
+  </si>
+  <si>
+    <t>CARLOS TOVAR GARCIA</t>
+  </si>
+  <si>
+    <t>1049534130</t>
+  </si>
+  <si>
+    <t>ONIX RAFAEL REALES OROZCO</t>
+  </si>
+  <si>
+    <t>1048580090</t>
+  </si>
+  <si>
+    <t>LUIS GUILLERMO OROZCO RAMOS</t>
+  </si>
+  <si>
+    <t>1049539239</t>
+  </si>
+  <si>
+    <t>PEDRO LUIS CABARCAS SOLANO</t>
+  </si>
+  <si>
     <t>8980991</t>
   </si>
   <si>
     <t>JEAN CARLOS ORTEGA DIAZ</t>
   </si>
   <si>
-    <t>2507</t>
+    <t>2508</t>
   </si>
   <si>
     <t>1002307880</t>
@@ -80,126 +323,18 @@
     <t>FARID DAVID ORTIZ SOLANO</t>
   </si>
   <si>
-    <t>1047441960</t>
-  </si>
-  <si>
-    <t>RAFAEL EDUARDO ROMERO VELEZ</t>
-  </si>
-  <si>
-    <t>2506</t>
-  </si>
-  <si>
-    <t>73573693</t>
-  </si>
-  <si>
-    <t>REINALVY JOSE GONZALEZ CANTILLO</t>
-  </si>
-  <si>
-    <t>9087367</t>
-  </si>
-  <si>
-    <t>GILBERTO ROMERO SANMARTIN</t>
-  </si>
-  <si>
-    <t>1049826376</t>
-  </si>
-  <si>
-    <t>DAWIS ARROYO TORRES</t>
-  </si>
-  <si>
     <t>1007628105</t>
   </si>
   <si>
     <t>KATTY JOHANNA BOLAÑO DE LEON</t>
   </si>
   <si>
-    <t>1047390593</t>
-  </si>
-  <si>
-    <t>CARLOS MARIO CARVAJAL MADRID</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>7920805</t>
-  </si>
-  <si>
-    <t>ANGEL MODESTO BLANCO HERRERA</t>
-  </si>
-  <si>
-    <t>1104381481</t>
-  </si>
-  <si>
-    <t>BRELIS JOSE FLOREZ POLANCO</t>
-  </si>
-  <si>
-    <t>1047468175</t>
-  </si>
-  <si>
-    <t>CARLOS JOSE MARTINEZ CASTILLO</t>
-  </si>
-  <si>
-    <t>1143401077</t>
-  </si>
-  <si>
-    <t>LIVAN RONALDO MIRANDA ACEVEDO</t>
-  </si>
-  <si>
     <t>1143324208</t>
   </si>
   <si>
     <t>EMANUEL JOSE ORTEGA CASTELLANO</t>
   </si>
   <si>
-    <t>1047466609</t>
-  </si>
-  <si>
-    <t>JORDY MANUEL GOMEZ VASQUEZ</t>
-  </si>
-  <si>
-    <t>11038313</t>
-  </si>
-  <si>
-    <t>SANTIAGO ARROYO ROJAS</t>
-  </si>
-  <si>
-    <t>3892326</t>
-  </si>
-  <si>
-    <t>CARLOS TOVAR GARCIA</t>
-  </si>
-  <si>
-    <t>9147020</t>
-  </si>
-  <si>
-    <t>FRANCISCO JAVIER CARVAJAL MADRID</t>
-  </si>
-  <si>
-    <t>72262949</t>
-  </si>
-  <si>
-    <t>JOE MARIO MARTINEZ COHEN</t>
-  </si>
-  <si>
-    <t>1007169087</t>
-  </si>
-  <si>
-    <t>ROBERTH ALBERTO OLMOS NUNEZ</t>
-  </si>
-  <si>
-    <t>1143384185</t>
-  </si>
-  <si>
-    <t>TANIA JULIETH RODRIGUEZ PALACIO</t>
-  </si>
-  <si>
-    <t>5030019</t>
-  </si>
-  <si>
-    <t>GERMAN ORELLANOS</t>
-  </si>
-  <si>
     <t>1002430510</t>
   </si>
   <si>
@@ -218,18 +353,6 @@
     <t>YEIFER JOSE RUIZ PEREZ</t>
   </si>
   <si>
-    <t>1049534130</t>
-  </si>
-  <si>
-    <t>ONIX RAFAEL REALES OROZCO</t>
-  </si>
-  <si>
-    <t>1002187932</t>
-  </si>
-  <si>
-    <t>FELIX MANUEL ARROYO VASQUEZ</t>
-  </si>
-  <si>
     <t>1047412739</t>
   </si>
   <si>
@@ -240,126 +363,6 @@
   </si>
   <si>
     <t>EDWIN ENRIQUE CORTINA MENDOZA</t>
-  </si>
-  <si>
-    <t>1047422032</t>
-  </si>
-  <si>
-    <t>LUIS MIGUEL HOYOS GALVIS</t>
-  </si>
-  <si>
-    <t>1056773716</t>
-  </si>
-  <si>
-    <t>KIMBERLY LIZDEY SOTO HERNANDEZ</t>
-  </si>
-  <si>
-    <t>1049825242</t>
-  </si>
-  <si>
-    <t>RICARDO JULIO GUZMAN</t>
-  </si>
-  <si>
-    <t>1002196560</t>
-  </si>
-  <si>
-    <t>VICTOR ADOLFO URZOLA GOMEZ</t>
-  </si>
-  <si>
-    <t>1041977292</t>
-  </si>
-  <si>
-    <t>LUIS MARIO CARVAJAL CHAVES</t>
-  </si>
-  <si>
-    <t>1049824347</t>
-  </si>
-  <si>
-    <t>WUILMER ENRIQUE ALTAMAR MONTALVO</t>
-  </si>
-  <si>
-    <t>1002316506</t>
-  </si>
-  <si>
-    <t>JUAN DE DIOS BERRIO PITALUA</t>
-  </si>
-  <si>
-    <t>1002316294</t>
-  </si>
-  <si>
-    <t>BREINER VILLA ALMEIDA</t>
-  </si>
-  <si>
-    <t>1048580090</t>
-  </si>
-  <si>
-    <t>LUIS GUILLERMO OROZCO RAMOS</t>
-  </si>
-  <si>
-    <t>1192738276</t>
-  </si>
-  <si>
-    <t>ADOLFREDO HERRERA COLON</t>
-  </si>
-  <si>
-    <t>8572454</t>
-  </si>
-  <si>
-    <t>EMILTON RAFAEL VALENCIA CERVANTES</t>
-  </si>
-  <si>
-    <t>1046430032</t>
-  </si>
-  <si>
-    <t>YAMIR ALFONSO NARVAEZ LOBO</t>
-  </si>
-  <si>
-    <t>84038369</t>
-  </si>
-  <si>
-    <t>ROBINSON MANUEL OROZCO CERVERA</t>
-  </si>
-  <si>
-    <t>1192731155</t>
-  </si>
-  <si>
-    <t>LUIS RAFAEL TERAN LOPEZ</t>
-  </si>
-  <si>
-    <t>1065623077</t>
-  </si>
-  <si>
-    <t>SERGIO VALLE BELLO</t>
-  </si>
-  <si>
-    <t>1065653936</t>
-  </si>
-  <si>
-    <t>CARLOS JAVIER MISAL PADILLA</t>
-  </si>
-  <si>
-    <t>1065631823</t>
-  </si>
-  <si>
-    <t>YONYS ENRIQUE OCHOA ACEVEDO</t>
-  </si>
-  <si>
-    <t>1065631907</t>
-  </si>
-  <si>
-    <t>OMAR JAVIER NIEVES SALAS</t>
-  </si>
-  <si>
-    <t>1065630304</t>
-  </si>
-  <si>
-    <t>GUSTAVO ALBERTO GOMEZ PALMERA</t>
-  </si>
-  <si>
-    <t>1049539239</t>
-  </si>
-  <si>
-    <t>PEDRO LUIS CABARCAS SOLANO</t>
   </si>
   <si>
     <t>73561757</t>
@@ -476,7 +479,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -489,9 +494,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -691,23 +694,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -735,10 +738,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -791,7 +794,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{088AF13B-8646-BC94-00C2-1399CAF1F349}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A10FE76-0C2F-8BEC-3405-5A00A0F42AE2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1142,8 +1145,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFB85976-5859-4CB3-AA9D-9EDB1FAE3B4B}">
-  <dimension ref="B2:J110"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B6DD838-7FC0-42BF-B763-04EDB8A1E1E6}">
+  <dimension ref="B2:J135"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1167,7 +1170,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1212,7 +1215,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1244,12 +1247,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>3916652</v>
+        <v>3730323</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1260,17 +1263,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C13" s="5">
         <v>51</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F13" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1297,13 +1300,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="I15" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="I15" s="13" t="s">
-        <v>119</v>
-      </c>
       <c r="J15" s="14" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1320,10 +1323,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>30368</v>
+        <v>2165</v>
       </c>
       <c r="G16" s="18">
-        <v>1423500</v>
+        <v>1623500</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1343,10 +1346,10 @@
         <v>11</v>
       </c>
       <c r="F17" s="18">
-        <v>45552</v>
+        <v>2165</v>
       </c>
       <c r="G17" s="18">
-        <v>1423500</v>
+        <v>1623500</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1366,7 +1369,7 @@
         <v>11</v>
       </c>
       <c r="F18" s="18">
-        <v>64940</v>
+        <v>2165</v>
       </c>
       <c r="G18" s="18">
         <v>1623500</v>
@@ -1380,13 +1383,13 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F19" s="18">
         <v>45458</v>
@@ -1403,16 +1406,16 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D20" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E20" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F20" s="18">
-        <v>64940</v>
+        <v>28141</v>
       </c>
       <c r="G20" s="18">
         <v>1623500</v>
@@ -1426,16 +1429,16 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D21" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E21" s="16" t="s">
-        <v>16</v>
-      </c>
       <c r="F21" s="18">
-        <v>28141</v>
+        <v>43294</v>
       </c>
       <c r="G21" s="18">
         <v>1623500</v>
@@ -1449,19 +1452,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F22" s="18">
-        <v>64940</v>
+        <v>13286</v>
       </c>
       <c r="G22" s="18">
-        <v>781242</v>
+        <v>1423500</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1472,19 +1475,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F23" s="18">
-        <v>43294</v>
+        <v>64940</v>
       </c>
       <c r="G23" s="18">
-        <v>781242</v>
+        <v>1623500</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1495,19 +1498,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F24" s="18">
-        <v>56940</v>
+        <v>45458</v>
       </c>
       <c r="G24" s="18">
-        <v>1423500</v>
+        <v>1623500</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1518,19 +1521,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F25" s="18">
-        <v>13286</v>
+        <v>28141</v>
       </c>
       <c r="G25" s="18">
-        <v>1423500</v>
+        <v>1623500</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1541,19 +1544,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F26" s="18">
-        <v>56940</v>
+        <v>28141</v>
       </c>
       <c r="G26" s="18">
-        <v>1423500</v>
+        <v>1623500</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1564,16 +1567,16 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F27" s="18">
-        <v>64940</v>
+        <v>28141</v>
       </c>
       <c r="G27" s="18">
         <v>1623500</v>
@@ -1587,19 +1590,19 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F28" s="18">
-        <v>64940</v>
+        <v>11388</v>
       </c>
       <c r="G28" s="18">
-        <v>1623500</v>
+        <v>1423500</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1610,19 +1613,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="F29" s="18">
-        <v>2165</v>
+        <v>11388</v>
       </c>
       <c r="G29" s="18">
-        <v>1623500</v>
+        <v>1423500</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1633,16 +1636,16 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F30" s="18">
-        <v>64940</v>
+        <v>45458</v>
       </c>
       <c r="G30" s="18">
         <v>1623500</v>
@@ -1656,13 +1659,13 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F31" s="18">
         <v>45458</v>
@@ -1679,19 +1682,19 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F32" s="18">
-        <v>64940</v>
+        <v>7592</v>
       </c>
       <c r="G32" s="18">
-        <v>1623500</v>
+        <v>1423500</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1702,19 +1705,19 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F33" s="18">
-        <v>28141</v>
+        <v>56940</v>
       </c>
       <c r="G33" s="18">
-        <v>1623500</v>
+        <v>1423500</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1725,16 +1728,16 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F34" s="18">
-        <v>64940</v>
+        <v>28141</v>
       </c>
       <c r="G34" s="18">
         <v>1623500</v>
@@ -1748,19 +1751,19 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F35" s="18">
-        <v>28141</v>
+        <v>11388</v>
       </c>
       <c r="G35" s="18">
-        <v>1623500</v>
+        <v>1423500</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1771,16 +1774,16 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F36" s="18">
-        <v>64940</v>
+        <v>28141</v>
       </c>
       <c r="G36" s="18">
         <v>1623500</v>
@@ -1794,19 +1797,19 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F37" s="18">
-        <v>28141</v>
+        <v>56940</v>
       </c>
       <c r="G37" s="18">
-        <v>1623500</v>
+        <v>1423500</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -1817,16 +1820,16 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F38" s="18">
-        <v>30368</v>
+        <v>13286</v>
       </c>
       <c r="G38" s="18">
         <v>1423500</v>
@@ -1840,19 +1843,19 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F39" s="18">
-        <v>56940</v>
+        <v>11388</v>
       </c>
       <c r="G39" s="18">
-        <v>1350000</v>
+        <v>1423500</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1863,19 +1866,19 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F40" s="18">
-        <v>11388</v>
+        <v>64940</v>
       </c>
       <c r="G40" s="18">
-        <v>1350000</v>
+        <v>1623500</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -1886,19 +1889,19 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F41" s="18">
-        <v>56940</v>
+        <v>25976</v>
       </c>
       <c r="G41" s="18">
-        <v>1350000</v>
+        <v>1623500</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1909,19 +1912,19 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F42" s="18">
-        <v>11388</v>
+        <v>25976</v>
       </c>
       <c r="G42" s="18">
-        <v>1350000</v>
+        <v>1623500</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -1932,16 +1935,16 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F43" s="18">
-        <v>17082</v>
+        <v>13286</v>
       </c>
       <c r="G43" s="18">
         <v>1423500</v>
@@ -1955,19 +1958,19 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F44" s="18">
         <v>64940</v>
       </c>
       <c r="G44" s="18">
-        <v>828116</v>
+        <v>1623500</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -1978,19 +1981,19 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F45" s="18">
         <v>45458</v>
       </c>
       <c r="G45" s="18">
-        <v>828116</v>
+        <v>1623500</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -2001,16 +2004,16 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F46" s="18">
-        <v>64940</v>
+        <v>45458</v>
       </c>
       <c r="G46" s="18">
         <v>1623500</v>
@@ -2024,13 +2027,13 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F47" s="18">
         <v>45458</v>
@@ -2047,19 +2050,19 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F48" s="18">
-        <v>56940</v>
+        <v>45458</v>
       </c>
       <c r="G48" s="18">
-        <v>1423500</v>
+        <v>1623500</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
@@ -2070,19 +2073,19 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F49" s="18">
-        <v>7592</v>
+        <v>45458</v>
       </c>
       <c r="G49" s="18">
-        <v>1423500</v>
+        <v>1623500</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
@@ -2093,19 +2096,19 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F50" s="18">
-        <v>56940</v>
+        <v>45458</v>
       </c>
       <c r="G50" s="18">
-        <v>1423500</v>
+        <v>1623500</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
@@ -2116,19 +2119,19 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F51" s="18">
-        <v>56940</v>
+        <v>28141</v>
       </c>
       <c r="G51" s="18">
-        <v>1423500</v>
+        <v>1623500</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
@@ -2139,16 +2142,16 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F52" s="18">
-        <v>64940</v>
+        <v>28141</v>
       </c>
       <c r="G52" s="18">
         <v>1623500</v>
@@ -2162,13 +2165,13 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F53" s="18">
         <v>28141</v>
@@ -2185,19 +2188,19 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="F54" s="18">
-        <v>30368</v>
+        <v>64940</v>
       </c>
       <c r="G54" s="18">
-        <v>1423500</v>
+        <v>1623500</v>
       </c>
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
@@ -2208,19 +2211,19 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="F55" s="18">
-        <v>53144</v>
+        <v>64940</v>
       </c>
       <c r="G55" s="18">
-        <v>1423500</v>
+        <v>1623500</v>
       </c>
       <c r="H55" s="19"/>
       <c r="I55" s="19"/>
@@ -2231,19 +2234,19 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="F56" s="18">
-        <v>26572</v>
+        <v>64940</v>
       </c>
       <c r="G56" s="18">
-        <v>1423500</v>
+        <v>1623500</v>
       </c>
       <c r="H56" s="19"/>
       <c r="I56" s="19"/>
@@ -2254,16 +2257,16 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="F57" s="18">
-        <v>17082</v>
+        <v>56940</v>
       </c>
       <c r="G57" s="18">
         <v>1423500</v>
@@ -2277,19 +2280,19 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>62</v>
+        <v>9</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="F58" s="18">
-        <v>56940</v>
+        <v>64940</v>
       </c>
       <c r="G58" s="18">
-        <v>1300000</v>
+        <v>1623500</v>
       </c>
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
@@ -2300,19 +2303,19 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>16</v>
+        <v>81</v>
       </c>
       <c r="F59" s="18">
-        <v>11388</v>
+        <v>64940</v>
       </c>
       <c r="G59" s="18">
-        <v>1300000</v>
+        <v>1623500</v>
       </c>
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
@@ -2323,19 +2326,19 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="F60" s="18">
-        <v>30368</v>
+        <v>64940</v>
       </c>
       <c r="G60" s="18">
-        <v>1423500</v>
+        <v>1623500</v>
       </c>
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
@@ -2346,19 +2349,19 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="F61" s="18">
-        <v>30368</v>
+        <v>64940</v>
       </c>
       <c r="G61" s="18">
-        <v>1423500</v>
+        <v>1623500</v>
       </c>
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
@@ -2369,13 +2372,13 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="F62" s="18">
         <v>64940</v>
@@ -2392,19 +2395,19 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>16</v>
+        <v>81</v>
       </c>
       <c r="F63" s="18">
-        <v>28141</v>
+        <v>56940</v>
       </c>
       <c r="G63" s="18">
-        <v>1623500</v>
+        <v>1423500</v>
       </c>
       <c r="H63" s="19"/>
       <c r="I63" s="19"/>
@@ -2415,19 +2418,19 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="F64" s="18">
         <v>56940</v>
       </c>
       <c r="G64" s="18">
-        <v>781242</v>
+        <v>1423500</v>
       </c>
       <c r="H64" s="19"/>
       <c r="I64" s="19"/>
@@ -2438,19 +2441,19 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>16</v>
+        <v>81</v>
       </c>
       <c r="F65" s="18">
-        <v>56940</v>
+        <v>17082</v>
       </c>
       <c r="G65" s="18">
-        <v>781242</v>
+        <v>1423500</v>
       </c>
       <c r="H65" s="19"/>
       <c r="I65" s="19"/>
@@ -2461,19 +2464,19 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="F66" s="18">
-        <v>56940</v>
+        <v>64940</v>
       </c>
       <c r="G66" s="18">
-        <v>1423500</v>
+        <v>1623500</v>
       </c>
       <c r="H66" s="19"/>
       <c r="I66" s="19"/>
@@ -2484,19 +2487,19 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>16</v>
+        <v>81</v>
       </c>
       <c r="F67" s="18">
-        <v>13286</v>
+        <v>64940</v>
       </c>
       <c r="G67" s="18">
-        <v>1423500</v>
+        <v>1623500</v>
       </c>
       <c r="H67" s="19"/>
       <c r="I67" s="19"/>
@@ -2507,13 +2510,13 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="F68" s="18">
         <v>56940</v>
@@ -2530,16 +2533,16 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>16</v>
+        <v>81</v>
       </c>
       <c r="F69" s="18">
-        <v>11388</v>
+        <v>56940</v>
       </c>
       <c r="G69" s="18">
         <v>1423500</v>
@@ -2553,13 +2556,13 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="F70" s="18">
         <v>64940</v>
@@ -2576,19 +2579,19 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>16</v>
+        <v>81</v>
       </c>
       <c r="F71" s="18">
-        <v>64940</v>
+        <v>17082</v>
       </c>
       <c r="G71" s="18">
-        <v>1623500</v>
+        <v>1423500</v>
       </c>
       <c r="H71" s="19"/>
       <c r="I71" s="19"/>
@@ -2599,19 +2602,19 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>27</v>
+        <v>81</v>
       </c>
       <c r="F72" s="18">
-        <v>2165</v>
+        <v>56940</v>
       </c>
       <c r="G72" s="18">
-        <v>1623500</v>
+        <v>1423500</v>
       </c>
       <c r="H72" s="19"/>
       <c r="I72" s="19"/>
@@ -2622,13 +2625,13 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="F73" s="18">
         <v>64940</v>
@@ -2645,19 +2648,19 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>16</v>
+        <v>81</v>
       </c>
       <c r="F74" s="18">
-        <v>25976</v>
+        <v>56940</v>
       </c>
       <c r="G74" s="18">
-        <v>1623500</v>
+        <v>1423500</v>
       </c>
       <c r="H74" s="19"/>
       <c r="I74" s="19"/>
@@ -2668,19 +2671,19 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="D75" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="E75" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="E75" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F75" s="18">
-        <v>64940</v>
+        <v>56940</v>
       </c>
       <c r="G75" s="18">
-        <v>1623500</v>
+        <v>1423500</v>
       </c>
       <c r="H75" s="19"/>
       <c r="I75" s="19"/>
@@ -2691,19 +2694,19 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="D76" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="E76" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="E76" s="16" t="s">
-        <v>16</v>
-      </c>
       <c r="F76" s="18">
-        <v>25976</v>
+        <v>56940</v>
       </c>
       <c r="G76" s="18">
-        <v>1623500</v>
+        <v>1423500</v>
       </c>
       <c r="H76" s="19"/>
       <c r="I76" s="19"/>
@@ -2714,19 +2717,19 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>82</v>
+        <v>12</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="F77" s="18">
-        <v>56940</v>
+        <v>64940</v>
       </c>
       <c r="G77" s="18">
-        <v>1423500</v>
+        <v>1623500</v>
       </c>
       <c r="H77" s="19"/>
       <c r="I77" s="19"/>
@@ -2737,19 +2740,19 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>16</v>
+        <v>81</v>
       </c>
       <c r="F78" s="18">
-        <v>13286</v>
+        <v>64940</v>
       </c>
       <c r="G78" s="18">
-        <v>1423500</v>
+        <v>1623500</v>
       </c>
       <c r="H78" s="19"/>
       <c r="I78" s="19"/>
@@ -2760,19 +2763,19 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="F79" s="18">
-        <v>26572</v>
+        <v>64940</v>
       </c>
       <c r="G79" s="18">
-        <v>1423500</v>
+        <v>1623500</v>
       </c>
       <c r="H79" s="19"/>
       <c r="I79" s="19"/>
@@ -2783,19 +2786,19 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="F80" s="18">
-        <v>64940</v>
+        <v>56940</v>
       </c>
       <c r="G80" s="18">
-        <v>1623500</v>
+        <v>1423500</v>
       </c>
       <c r="H80" s="19"/>
       <c r="I80" s="19"/>
@@ -2812,13 +2815,13 @@
         <v>87</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>16</v>
+        <v>81</v>
       </c>
       <c r="F81" s="18">
-        <v>64940</v>
+        <v>26572</v>
       </c>
       <c r="G81" s="18">
-        <v>1623500</v>
+        <v>1423500</v>
       </c>
       <c r="H81" s="19"/>
       <c r="I81" s="19"/>
@@ -2829,16 +2832,16 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>86</v>
+        <v>14</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>87</v>
+        <v>15</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>27</v>
+        <v>81</v>
       </c>
       <c r="F82" s="18">
-        <v>2165</v>
+        <v>64940</v>
       </c>
       <c r="G82" s="18">
         <v>1623500</v>
@@ -2852,13 +2855,13 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="F83" s="18">
         <v>64940</v>
@@ -2875,16 +2878,16 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>16</v>
+        <v>81</v>
       </c>
       <c r="F84" s="18">
-        <v>45458</v>
+        <v>64940</v>
       </c>
       <c r="G84" s="18">
         <v>1623500</v>
@@ -2898,13 +2901,13 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="F85" s="18">
         <v>64940</v>
@@ -2921,16 +2924,16 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>16</v>
+        <v>81</v>
       </c>
       <c r="F86" s="18">
-        <v>45458</v>
+        <v>64940</v>
       </c>
       <c r="G86" s="18">
         <v>1623500</v>
@@ -2944,13 +2947,13 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="F87" s="18">
         <v>64940</v>
@@ -2967,16 +2970,16 @@
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>16</v>
+        <v>81</v>
       </c>
       <c r="F88" s="18">
-        <v>45458</v>
+        <v>64940</v>
       </c>
       <c r="G88" s="18">
         <v>1623500</v>
@@ -2990,13 +2993,13 @@
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="F89" s="18">
         <v>64940</v>
@@ -3013,16 +3016,16 @@
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>16</v>
+        <v>81</v>
       </c>
       <c r="F90" s="18">
-        <v>45458</v>
+        <v>64940</v>
       </c>
       <c r="G90" s="18">
         <v>1623500</v>
@@ -3036,13 +3039,13 @@
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="F91" s="18">
         <v>64940</v>
@@ -3059,19 +3062,19 @@
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>16</v>
+        <v>81</v>
       </c>
       <c r="F92" s="18">
-        <v>45458</v>
+        <v>26572</v>
       </c>
       <c r="G92" s="18">
-        <v>1623500</v>
+        <v>1423500</v>
       </c>
       <c r="H92" s="19"/>
       <c r="I92" s="19"/>
@@ -3082,19 +3085,19 @@
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="F93" s="18">
-        <v>64940</v>
+        <v>1898</v>
       </c>
       <c r="G93" s="18">
-        <v>1623500</v>
+        <v>1423500</v>
       </c>
       <c r="H93" s="19"/>
       <c r="I93" s="19"/>
@@ -3105,19 +3108,19 @@
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>16</v>
+        <v>92</v>
       </c>
       <c r="F94" s="18">
-        <v>45458</v>
+        <v>1898</v>
       </c>
       <c r="G94" s="18">
-        <v>1623500</v>
+        <v>1423500</v>
       </c>
       <c r="H94" s="19"/>
       <c r="I94" s="19"/>
@@ -3128,16 +3131,16 @@
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>100</v>
+        <v>19</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>101</v>
+        <v>20</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="F95" s="18">
-        <v>64940</v>
+        <v>2165</v>
       </c>
       <c r="G95" s="18">
         <v>1623500</v>
@@ -3151,19 +3154,19 @@
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>16</v>
+        <v>92</v>
       </c>
       <c r="F96" s="18">
-        <v>28141</v>
+        <v>1898</v>
       </c>
       <c r="G96" s="18">
-        <v>1623500</v>
+        <v>1423500</v>
       </c>
       <c r="H96" s="19"/>
       <c r="I96" s="19"/>
@@ -3174,16 +3177,16 @@
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>102</v>
+        <v>29</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>103</v>
+        <v>30</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="F97" s="18">
-        <v>64940</v>
+        <v>2165</v>
       </c>
       <c r="G97" s="18">
         <v>1623500</v>
@@ -3197,19 +3200,19 @@
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>16</v>
+        <v>92</v>
       </c>
       <c r="F98" s="18">
-        <v>28141</v>
+        <v>1898</v>
       </c>
       <c r="G98" s="18">
-        <v>1623500</v>
+        <v>1423500</v>
       </c>
       <c r="H98" s="19"/>
       <c r="I98" s="19"/>
@@ -3220,19 +3223,19 @@
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>104</v>
+        <v>33</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>105</v>
+        <v>34</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="F99" s="18">
-        <v>64940</v>
+        <v>1898</v>
       </c>
       <c r="G99" s="18">
-        <v>1623500</v>
+        <v>1423500</v>
       </c>
       <c r="H99" s="19"/>
       <c r="I99" s="19"/>
@@ -3243,19 +3246,19 @@
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>104</v>
+        <v>35</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>105</v>
+        <v>36</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>16</v>
+        <v>92</v>
       </c>
       <c r="F100" s="18">
-        <v>28141</v>
+        <v>1898</v>
       </c>
       <c r="G100" s="18">
-        <v>1623500</v>
+        <v>1423500</v>
       </c>
       <c r="H100" s="19"/>
       <c r="I100" s="19"/>
@@ -3266,16 +3269,16 @@
         <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="F101" s="18">
-        <v>26572</v>
+        <v>1898</v>
       </c>
       <c r="G101" s="18">
         <v>1423500</v>
@@ -3289,19 +3292,19 @@
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>108</v>
+        <v>37</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>109</v>
+        <v>38</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="F102" s="18">
-        <v>30368</v>
+        <v>2165</v>
       </c>
       <c r="G102" s="18">
-        <v>1423500</v>
+        <v>1623500</v>
       </c>
       <c r="H102" s="19"/>
       <c r="I102" s="19"/>
@@ -3312,16 +3315,16 @@
         <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>110</v>
+        <v>41</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>111</v>
+        <v>42</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="F103" s="18">
-        <v>30368</v>
+        <v>1898</v>
       </c>
       <c r="G103" s="18">
         <v>1423500</v>
@@ -3331,56 +3334,631 @@
       <c r="J103" s="20"/>
     </row>
     <row r="104" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B104" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C104" s="22" t="s">
+      <c r="B104" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C104" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D104" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="E104" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="F104" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G104" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H104" s="19"/>
+      <c r="I104" s="19"/>
+      <c r="J104" s="20"/>
+    </row>
+    <row r="105" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B105" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C105" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D105" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E105" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="F105" s="18">
+        <v>2165</v>
+      </c>
+      <c r="G105" s="18">
+        <v>1623500</v>
+      </c>
+      <c r="H105" s="19"/>
+      <c r="I105" s="19"/>
+      <c r="J105" s="20"/>
+    </row>
+    <row r="106" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B106" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C106" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="D106" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="E106" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="F106" s="18">
+        <v>1898</v>
+      </c>
+      <c r="G106" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H106" s="19"/>
+      <c r="I106" s="19"/>
+      <c r="J106" s="20"/>
+    </row>
+    <row r="107" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B107" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C107" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D107" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E107" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="F107" s="18">
+        <v>1898</v>
+      </c>
+      <c r="G107" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H107" s="19"/>
+      <c r="I107" s="19"/>
+      <c r="J107" s="20"/>
+    </row>
+    <row r="108" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B108" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C108" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D108" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="E108" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="F108" s="18">
+        <v>1898</v>
+      </c>
+      <c r="G108" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H108" s="19"/>
+      <c r="I108" s="19"/>
+      <c r="J108" s="20"/>
+    </row>
+    <row r="109" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B109" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C109" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="D109" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="E109" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="F109" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G109" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H109" s="19"/>
+      <c r="I109" s="19"/>
+      <c r="J109" s="20"/>
+    </row>
+    <row r="110" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B110" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C110" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D110" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E110" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="F110" s="18">
+        <v>1898</v>
+      </c>
+      <c r="G110" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H110" s="19"/>
+      <c r="I110" s="19"/>
+      <c r="J110" s="20"/>
+    </row>
+    <row r="111" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B111" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C111" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="D111" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="E111" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="F111" s="18">
+        <v>1898</v>
+      </c>
+      <c r="G111" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H111" s="19"/>
+      <c r="I111" s="19"/>
+      <c r="J111" s="20"/>
+    </row>
+    <row r="112" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B112" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C112" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="D112" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="E112" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="F112" s="18">
+        <v>1898</v>
+      </c>
+      <c r="G112" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H112" s="19"/>
+      <c r="I112" s="19"/>
+      <c r="J112" s="20"/>
+    </row>
+    <row r="113" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B113" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C113" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D113" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E113" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="F113" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G113" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H113" s="19"/>
+      <c r="I113" s="19"/>
+      <c r="J113" s="20"/>
+    </row>
+    <row r="114" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B114" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C114" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D114" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="E114" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="F114" s="18">
+        <v>1898</v>
+      </c>
+      <c r="G114" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H114" s="19"/>
+      <c r="I114" s="19"/>
+      <c r="J114" s="20"/>
+    </row>
+    <row r="115" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B115" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C115" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D115" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="E115" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="F115" s="18">
+        <v>1898</v>
+      </c>
+      <c r="G115" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H115" s="19"/>
+      <c r="I115" s="19"/>
+      <c r="J115" s="20"/>
+    </row>
+    <row r="116" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B116" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C116" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D116" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="E116" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="F116" s="18">
+        <v>2165</v>
+      </c>
+      <c r="G116" s="18">
+        <v>1623500</v>
+      </c>
+      <c r="H116" s="19"/>
+      <c r="I116" s="19"/>
+      <c r="J116" s="20"/>
+    </row>
+    <row r="117" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B117" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C117" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D117" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E117" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="F117" s="18">
+        <v>2165</v>
+      </c>
+      <c r="G117" s="18">
+        <v>1623500</v>
+      </c>
+      <c r="H117" s="19"/>
+      <c r="I117" s="19"/>
+      <c r="J117" s="20"/>
+    </row>
+    <row r="118" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B118" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C118" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D118" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="E118" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="F118" s="18">
+        <v>1898</v>
+      </c>
+      <c r="G118" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H118" s="19"/>
+      <c r="I118" s="19"/>
+      <c r="J118" s="20"/>
+    </row>
+    <row r="119" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B119" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C119" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D119" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E119" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="F119" s="18">
+        <v>2165</v>
+      </c>
+      <c r="G119" s="18">
+        <v>1623500</v>
+      </c>
+      <c r="H119" s="19"/>
+      <c r="I119" s="19"/>
+      <c r="J119" s="20"/>
+    </row>
+    <row r="120" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B120" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C120" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D120" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E120" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="F120" s="18">
+        <v>2165</v>
+      </c>
+      <c r="G120" s="18">
+        <v>1623500</v>
+      </c>
+      <c r="H120" s="19"/>
+      <c r="I120" s="19"/>
+      <c r="J120" s="20"/>
+    </row>
+    <row r="121" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B121" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C121" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="D121" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="E121" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="F121" s="18">
+        <v>2165</v>
+      </c>
+      <c r="G121" s="18">
+        <v>1623500</v>
+      </c>
+      <c r="H121" s="19"/>
+      <c r="I121" s="19"/>
+      <c r="J121" s="20"/>
+    </row>
+    <row r="122" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B122" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C122" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="D122" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="E122" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="F122" s="18">
+        <v>2165</v>
+      </c>
+      <c r="G122" s="18">
+        <v>1623500</v>
+      </c>
+      <c r="H122" s="19"/>
+      <c r="I122" s="19"/>
+      <c r="J122" s="20"/>
+    </row>
+    <row r="123" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B123" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C123" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D123" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="E123" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="F123" s="18">
+        <v>2165</v>
+      </c>
+      <c r="G123" s="18">
+        <v>1623500</v>
+      </c>
+      <c r="H123" s="19"/>
+      <c r="I123" s="19"/>
+      <c r="J123" s="20"/>
+    </row>
+    <row r="124" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B124" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C124" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="D124" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="E124" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="F124" s="18">
+        <v>2165</v>
+      </c>
+      <c r="G124" s="18">
+        <v>1623500</v>
+      </c>
+      <c r="H124" s="19"/>
+      <c r="I124" s="19"/>
+      <c r="J124" s="20"/>
+    </row>
+    <row r="125" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B125" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C125" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="D125" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="E125" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="F125" s="18">
+        <v>2165</v>
+      </c>
+      <c r="G125" s="18">
+        <v>1623500</v>
+      </c>
+      <c r="H125" s="19"/>
+      <c r="I125" s="19"/>
+      <c r="J125" s="20"/>
+    </row>
+    <row r="126" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B126" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C126" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="D126" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="E126" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="F126" s="18">
+        <v>1898</v>
+      </c>
+      <c r="G126" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H126" s="19"/>
+      <c r="I126" s="19"/>
+      <c r="J126" s="20"/>
+    </row>
+    <row r="127" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B127" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C127" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="D127" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="E127" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="F127" s="18">
+        <v>1898</v>
+      </c>
+      <c r="G127" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H127" s="19"/>
+      <c r="I127" s="19"/>
+      <c r="J127" s="20"/>
+    </row>
+    <row r="128" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B128" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C128" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="D128" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="D104" s="23" t="s">
+      <c r="E128" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="F128" s="18">
+        <v>1898</v>
+      </c>
+      <c r="G128" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H128" s="19"/>
+      <c r="I128" s="19"/>
+      <c r="J128" s="20"/>
+    </row>
+    <row r="129" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B129" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C129" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="E104" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="F104" s="24">
-        <v>30368</v>
-      </c>
-      <c r="G104" s="24">
-        <v>1423500</v>
-      </c>
-      <c r="H104" s="25"/>
-      <c r="I104" s="25"/>
-      <c r="J104" s="26"/>
-    </row>
-    <row r="109" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B109" s="32" t="s">
+      <c r="D129" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="E129" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="F129" s="24">
+        <v>1898</v>
+      </c>
+      <c r="G129" s="24">
+        <v>1423500</v>
+      </c>
+      <c r="H129" s="25"/>
+      <c r="I129" s="25"/>
+      <c r="J129" s="26"/>
+    </row>
+    <row r="134" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B134" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="C134" s="32"/>
+      <c r="H134" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="I134" s="1"/>
+      <c r="J134" s="1"/>
+    </row>
+    <row r="135" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B135" s="32" t="s">
         <v>123</v>
       </c>
-      <c r="C109" s="32"/>
-      <c r="H109" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="I109" s="1"/>
-      <c r="J109" s="1"/>
-    </row>
-    <row r="110" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B110" s="32" t="s">
-        <v>122</v>
-      </c>
-      <c r="C110" s="32"/>
-      <c r="H110" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="I110" s="1"/>
-      <c r="J110" s="1"/>
+      <c r="C135" s="32"/>
+      <c r="H135" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="I135" s="1"/>
+      <c r="J135" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B110:C110"/>
-    <mergeCell ref="B109:C109"/>
-    <mergeCell ref="H110:J110"/>
-    <mergeCell ref="H109:J109"/>
+    <mergeCell ref="B135:C135"/>
+    <mergeCell ref="B134:C134"/>
+    <mergeCell ref="H135:J135"/>
+    <mergeCell ref="H134:J134"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
